--- a/Day6/Book (4).xlsx
+++ b/Day6/Book (4).xlsx
@@ -3,12 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26502"/>
   <workbookPr showInkAnnotation="0" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2CAA86E1-0CA6-497E-9F78-F43E72AA85A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{795EC434-2ABA-445F-948B-488840B97D4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -50,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>Count</t>
   </si>
@@ -67,25 +68,58 @@
     <t>TEXTJOIN("";TRUE;B16:DH16)</t>
   </si>
   <si>
-    <t>efdjdddfddjjjfjfjffkggjkkktgbbss</t>
+    <t>eeffdjdddfdddjjjfjfjfffkggjkkeektrrggbbsssg</t>
   </si>
   <si>
-    <t>efdjfjfjkjtg</t>
+    <t>Remove all single items</t>
   </si>
   <si>
-    <t>remove singles</t>
+    <t>efdjdfdjfjfjfkgjkektrgbsg</t>
   </si>
   <si>
     <t>Remove in pieces</t>
   </si>
   <si>
-    <t>fjjfjj</t>
+    <t>efdjdfdjfjfjfkgjkekgg</t>
   </si>
   <si>
-    <t>fjjjj</t>
+    <t>efdjddjfjfjfkgjkekgg</t>
   </si>
   <si>
-    <t>jjjj</t>
+    <t>efdjjfjfjfkgjkekgg</t>
+  </si>
+  <si>
+    <t>efjjfjfjfkgjkekgg</t>
+  </si>
+  <si>
+    <t>efjjfjfjfkgjkkgg</t>
+  </si>
+  <si>
+    <t>efjjfjfjfkgkkgg</t>
+  </si>
+  <si>
+    <t>efjjfjfjfkkkgg</t>
+  </si>
+  <si>
+    <t>efjjfjfjfgg</t>
+  </si>
+  <si>
+    <t>fjjfjfjfgg</t>
+  </si>
+  <si>
+    <t>fjjfjfjf</t>
+  </si>
+  <si>
+    <t>fjjjfjf</t>
+  </si>
+  <si>
+    <t>fjjjjf</t>
+  </si>
+  <si>
+    <t>ff</t>
+  </si>
+  <si>
+    <t>efjdjfjfjfkgjktgbs</t>
   </si>
 </sst>
 </file>
@@ -437,14 +471,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{753C87DB-81FA-904C-A8F5-4C984986573B}">
-  <dimension ref="A1:DN35"/>
+  <dimension ref="A1:DN46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
+    <col min="1" max="1" width="39" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="11.140625" customWidth="1"/>
     <col min="5" max="5" width="8" customWidth="1"/>
     <col min="6" max="6" width="8.42578125" customWidth="1"/>
@@ -5277,14 +5312,14 @@
     <row r="14" spans="1:118">
       <c r="A14">
         <f>SUM(B14:DM14)</f>
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="B14">
-        <f>IF(OR(B12&gt;C13,B13&gt;A12),1,0)</f>
+        <f t="shared" ref="B14:BN14" si="14">IF(OR(B12&gt;C13,B13&gt;A12),1,0)</f>
         <v>1</v>
       </c>
       <c r="C14">
-        <f t="shared" ref="C14:BN14" si="14">IF(OR(C12&gt;D13,C13&gt;B12),1,0)</f>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="D14">
@@ -5304,8 +5339,7 @@
         <v>1</v>
       </c>
       <c r="H14">
-        <f t="shared" si="14"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14">
         <f t="shared" si="14"/>
@@ -5324,8 +5358,7 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <f t="shared" si="14"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N14">
         <f t="shared" si="14"/>
@@ -5416,8 +5449,7 @@
         <v>1</v>
       </c>
       <c r="AJ14">
-        <f t="shared" si="14"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK14">
         <f t="shared" si="14"/>
@@ -5468,8 +5500,7 @@
         <v>1</v>
       </c>
       <c r="AW14">
-        <f t="shared" si="14"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX14">
         <f t="shared" si="14"/>
@@ -5544,8 +5575,7 @@
         <v>0</v>
       </c>
       <c r="BP14">
-        <f t="shared" si="15"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQ14">
         <f t="shared" si="15"/>
@@ -5556,8 +5586,7 @@
         <v>1</v>
       </c>
       <c r="BS14">
-        <f t="shared" si="15"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT14">
         <f t="shared" si="15"/>
@@ -5580,8 +5609,7 @@
         <v>0</v>
       </c>
       <c r="BY14">
-        <f t="shared" si="15"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ14">
         <f t="shared" si="15"/>
@@ -5592,8 +5620,7 @@
         <v>1</v>
       </c>
       <c r="CB14">
-        <f t="shared" si="15"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CC14">
         <f t="shared" si="15"/>
@@ -5628,8 +5655,7 @@
         <v>1</v>
       </c>
       <c r="CK14">
-        <f t="shared" si="15"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CL14">
         <f t="shared" si="15"/>
@@ -5648,12 +5674,11 @@
         <v>1</v>
       </c>
       <c r="CP14">
-        <f t="shared" si="15"/>
+        <f>IF(OR(CP12&gt;CQ13,CP13&gt;CO12),1,0)</f>
         <v>0</v>
       </c>
       <c r="CQ14">
-        <f t="shared" si="15"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CR14">
         <f t="shared" si="15"/>
@@ -5696,8 +5721,7 @@
         <v>1</v>
       </c>
       <c r="DB14">
-        <f t="shared" si="15"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DC14">
         <f t="shared" si="15"/>
@@ -5727,7 +5751,7 @@
     <row r="15" spans="1:118">
       <c r="A15" t="str">
         <f>_xlfn.TEXTJOIN("",TRUE,B15:DH15)</f>
-        <v>efdjdddfddjjjfjfjffkggjkkktgbbss</v>
+        <v>eeffdjdddfdddjjjfjfjfffkggjkkeektrrggbbsssg</v>
       </c>
       <c r="B15" t="str">
         <f>IF(B14=1,"",B11)</f>
@@ -5755,7 +5779,7 @@
       </c>
       <c r="H15" t="str">
         <f t="shared" si="16"/>
-        <v/>
+        <v>e</v>
       </c>
       <c r="I15" t="str">
         <f t="shared" si="16"/>
@@ -5775,7 +5799,7 @@
       </c>
       <c r="M15" t="str">
         <f t="shared" si="16"/>
-        <v/>
+        <v>f</v>
       </c>
       <c r="N15" t="str">
         <f t="shared" si="16"/>
@@ -5867,7 +5891,7 @@
       </c>
       <c r="AJ15" t="str">
         <f t="shared" si="16"/>
-        <v/>
+        <v>d</v>
       </c>
       <c r="AK15" t="str">
         <f t="shared" si="16"/>
@@ -5919,7 +5943,7 @@
       </c>
       <c r="AW15" t="str">
         <f t="shared" si="16"/>
-        <v/>
+        <v>f</v>
       </c>
       <c r="AX15" t="str">
         <f t="shared" si="16"/>
@@ -5995,7 +6019,7 @@
       </c>
       <c r="BP15" t="str">
         <f t="shared" si="17"/>
-        <v/>
+        <v>e</v>
       </c>
       <c r="BQ15" t="str">
         <f t="shared" si="17"/>
@@ -6007,7 +6031,7 @@
       </c>
       <c r="BS15" t="str">
         <f t="shared" si="17"/>
-        <v/>
+        <v>e</v>
       </c>
       <c r="BT15" t="str">
         <f t="shared" si="17"/>
@@ -6031,7 +6055,7 @@
       </c>
       <c r="BY15" t="str">
         <f t="shared" si="17"/>
-        <v/>
+        <v>r</v>
       </c>
       <c r="BZ15" t="str">
         <f t="shared" si="17"/>
@@ -6043,7 +6067,7 @@
       </c>
       <c r="CB15" t="str">
         <f t="shared" si="17"/>
-        <v/>
+        <v>r</v>
       </c>
       <c r="CC15" t="str">
         <f t="shared" si="17"/>
@@ -6079,7 +6103,7 @@
       </c>
       <c r="CK15" t="str">
         <f t="shared" si="17"/>
-        <v/>
+        <v>g</v>
       </c>
       <c r="CL15" t="str">
         <f t="shared" si="17"/>
@@ -6103,7 +6127,7 @@
       </c>
       <c r="CQ15" t="str">
         <f t="shared" si="17"/>
-        <v/>
+        <v>s</v>
       </c>
       <c r="CR15" t="str">
         <f t="shared" si="17"/>
@@ -6147,7 +6171,7 @@
       </c>
       <c r="DB15" t="str">
         <f t="shared" si="17"/>
-        <v/>
+        <v>g</v>
       </c>
       <c r="DC15" t="str">
         <f t="shared" si="17"/>
@@ -6182,7 +6206,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:33">
+    <row r="17" spans="1:44">
       <c r="B17" t="str" cm="1">
         <f t="array" ref="B17">_xlfn.TEXTJOIN("",1,MID(MID($B16,1,B18-2),_xlfn.SEQUENCE(LEN($B16),,LEN($B16),-1),1))</f>
         <v/>
@@ -6193,126 +6217,82 @@
       </c>
       <c r="D17" t="str" cm="1">
         <f t="array" ref="D17">_xlfn.TEXTJOIN("",1,MID(MID($B16,1,D18-2),_xlfn.SEQUENCE(LEN($B16),,LEN($B16),-1),1))</f>
-        <v>fe</v>
+        <v>ee</v>
       </c>
       <c r="E17" t="str" cm="1">
         <f t="array" ref="E17">_xlfn.TEXTJOIN("",1,MID(MID($B16,1,E18-2),_xlfn.SEQUENCE(LEN($B16),,LEN($B16),-1),1))</f>
-        <v>dfe</v>
+        <v>fee</v>
       </c>
       <c r="F17" t="str" cm="1">
         <f t="array" ref="F17">_xlfn.TEXTJOIN("",1,MID(MID($B16,1,F18-2),_xlfn.SEQUENCE(LEN($B16),,LEN($B16),-1),1))</f>
-        <v>jdfe</v>
+        <v>ffee</v>
       </c>
       <c r="G17" t="str" cm="1">
         <f t="array" ref="G17">_xlfn.TEXTJOIN("",1,MID(MID($B16,1,G18-2),_xlfn.SEQUENCE(LEN($B16),,LEN($B16),-1),1))</f>
-        <v>djdfe</v>
+        <v>dffee</v>
       </c>
       <c r="H17" t="str" cm="1">
         <f t="array" ref="H17">_xlfn.TEXTJOIN("",1,MID(MID($B16,1,H18-2),_xlfn.SEQUENCE(LEN($B16),,LEN($B16),-1),1))</f>
-        <v>ddjdfe</v>
+        <v>jdffee</v>
       </c>
       <c r="I17" t="str" cm="1">
         <f t="array" ref="I17">_xlfn.TEXTJOIN("",1,MID(MID($B16,1,I18-2),_xlfn.SEQUENCE(LEN($B16),,LEN($B16),-1),1))</f>
-        <v>dddjdfe</v>
+        <v>djdffee</v>
       </c>
       <c r="J17" t="str" cm="1">
         <f t="array" ref="J17">_xlfn.TEXTJOIN("",1,MID(MID($B16,1,J18-2),_xlfn.SEQUENCE(LEN($B16),,LEN($B16),-1),1))</f>
-        <v>fdddjdfe</v>
+        <v>ddjdffee</v>
       </c>
       <c r="K17" t="str" cm="1">
         <f t="array" ref="K17">_xlfn.TEXTJOIN("",1,MID(MID($B16,1,K18-2),_xlfn.SEQUENCE(LEN($B16),,LEN($B16),-1),1))</f>
-        <v>dfdddjdfe</v>
+        <v>dddjdffee</v>
       </c>
       <c r="L17" t="str" cm="1">
         <f t="array" ref="L17">_xlfn.TEXTJOIN("",1,MID(MID($B16,1,L18-2),_xlfn.SEQUENCE(LEN($B16),,LEN($B16),-1),1))</f>
-        <v>ddfdddjdfe</v>
+        <v>fdddjdffee</v>
       </c>
       <c r="M17" t="str" cm="1">
         <f t="array" ref="M17">_xlfn.TEXTJOIN("",1,MID(MID($B16,1,M18-2),_xlfn.SEQUENCE(LEN($B16),,LEN($B16),-1),1))</f>
-        <v>jddfdddjdfe</v>
+        <v>dfdddjdffee</v>
       </c>
       <c r="N17" t="str" cm="1">
         <f t="array" ref="N17">_xlfn.TEXTJOIN("",1,MID(MID($B16,1,N18-2),_xlfn.SEQUENCE(LEN($B16),,LEN($B16),-1),1))</f>
-        <v>jjddfdddjdfe</v>
+        <v>ddfdddjdffee</v>
       </c>
       <c r="O17" t="str" cm="1">
         <f t="array" ref="O17">_xlfn.TEXTJOIN("",1,MID(MID($B16,1,O18-2),_xlfn.SEQUENCE(LEN($B16),,LEN($B16),-1),1))</f>
-        <v>jjjddfdddjdfe</v>
+        <v>dddfdddjdffee</v>
       </c>
       <c r="P17" t="str" cm="1">
         <f t="array" ref="P17">_xlfn.TEXTJOIN("",1,MID(MID($B16,1,P18-2),_xlfn.SEQUENCE(LEN($B16),,LEN($B16),-1),1))</f>
-        <v>fjjjddfdddjdfe</v>
+        <v>jdddfdddjdffee</v>
       </c>
       <c r="Q17" t="str" cm="1">
         <f t="array" ref="Q17">_xlfn.TEXTJOIN("",1,MID(MID($B16,1,Q18-2),_xlfn.SEQUENCE(LEN($B16),,LEN($B16),-1),1))</f>
-        <v>jfjjjddfdddjdfe</v>
+        <v>jjdddfdddjdffee</v>
       </c>
       <c r="R17" t="str" cm="1">
         <f t="array" ref="R17">_xlfn.TEXTJOIN("",1,MID(MID($B16,1,R18-2),_xlfn.SEQUENCE(LEN($B16),,LEN($B16),-1),1))</f>
-        <v>fjfjjjddfdddjdfe</v>
+        <v>jjjdddfdddjdffee</v>
       </c>
       <c r="S17" t="str" cm="1">
         <f t="array" ref="S17">_xlfn.TEXTJOIN("",1,MID(MID($B16,1,S18-2),_xlfn.SEQUENCE(LEN($B16),,LEN($B16),-1),1))</f>
-        <v>jfjfjjjddfdddjdfe</v>
+        <v>fjjjdddfdddjdffee</v>
       </c>
       <c r="T17" t="str" cm="1">
         <f t="array" ref="T17">_xlfn.TEXTJOIN("",1,MID(MID($B16,1,T18-2),_xlfn.SEQUENCE(LEN($B16),,LEN($B16),-1),1))</f>
-        <v>fjfjfjjjddfdddjdfe</v>
+        <v>jfjjjdddfdddjdffee</v>
       </c>
       <c r="U17" t="str" cm="1">
         <f t="array" ref="U17">_xlfn.TEXTJOIN("",1,MID(MID($B16,1,U18-2),_xlfn.SEQUENCE(LEN($B16),,LEN($B16),-1),1))</f>
-        <v>ffjfjfjjjddfdddjdfe</v>
+        <v>fjfjjjdddfdddjdffee</v>
       </c>
       <c r="V17" t="str" cm="1">
         <f t="array" ref="V17">_xlfn.TEXTJOIN("",1,MID(MID($B16,1,V18-2),_xlfn.SEQUENCE(LEN($B16),,LEN($B16),-1),1))</f>
-        <v>kffjfjfjjjddfdddjdfe</v>
-      </c>
-      <c r="W17" t="str" cm="1">
-        <f t="array" ref="W17">_xlfn.TEXTJOIN("",1,MID(MID($B16,1,W18-2),_xlfn.SEQUENCE(LEN($B16),,LEN($B16),-1),1))</f>
-        <v>gkffjfjfjjjddfdddjdfe</v>
-      </c>
-      <c r="X17" t="str" cm="1">
-        <f t="array" ref="X17">_xlfn.TEXTJOIN("",1,MID(MID($B16,1,X18-2),_xlfn.SEQUENCE(LEN($B16),,LEN($B16),-1),1))</f>
-        <v>ggkffjfjfjjjddfdddjdfe</v>
-      </c>
-      <c r="Y17" t="str" cm="1">
-        <f t="array" ref="Y17">_xlfn.TEXTJOIN("",1,MID(MID($B16,1,Y18-2),_xlfn.SEQUENCE(LEN($B16),,LEN($B16),-1),1))</f>
-        <v>jggkffjfjfjjjddfdddjdfe</v>
-      </c>
-      <c r="Z17" t="str" cm="1">
-        <f t="array" ref="Z17">_xlfn.TEXTJOIN("",1,MID(MID($B16,1,Z18-2),_xlfn.SEQUENCE(LEN($B16),,LEN($B16),-1),1))</f>
-        <v>kjggkffjfjfjjjddfdddjdfe</v>
-      </c>
-      <c r="AA17" t="str" cm="1">
-        <f t="array" ref="AA17">_xlfn.TEXTJOIN("",1,MID(MID($B16,1,AA18-2),_xlfn.SEQUENCE(LEN($B16),,LEN($B16),-1),1))</f>
-        <v>kkjggkffjfjfjjjddfdddjdfe</v>
-      </c>
-      <c r="AB17" t="str" cm="1">
-        <f t="array" ref="AB17">_xlfn.TEXTJOIN("",1,MID(MID($B16,1,AB18-2),_xlfn.SEQUENCE(LEN($B16),,LEN($B16),-1),1))</f>
-        <v>kkkjggkffjfjfjjjddfdddjdfe</v>
-      </c>
-      <c r="AC17" t="str" cm="1">
-        <f t="array" ref="AC17">_xlfn.TEXTJOIN("",1,MID(MID($B16,1,AC18-2),_xlfn.SEQUENCE(LEN($B16),,LEN($B16),-1),1))</f>
-        <v>tkkkjggkffjfjfjjjddfdddjdfe</v>
-      </c>
-      <c r="AD17" t="str" cm="1">
-        <f t="array" ref="AD17">_xlfn.TEXTJOIN("",1,MID(MID($B16,1,AD18-2),_xlfn.SEQUENCE(LEN($B16),,LEN($B16),-1),1))</f>
-        <v>gtkkkjggkffjfjfjjjddfdddjdfe</v>
-      </c>
-      <c r="AE17" t="str" cm="1">
-        <f t="array" ref="AE17">_xlfn.TEXTJOIN("",1,MID(MID($B16,1,AE18-2),_xlfn.SEQUENCE(LEN($B16),,LEN($B16),-1),1))</f>
-        <v>bgtkkkjggkffjfjfjjjddfdddjdfe</v>
-      </c>
-      <c r="AF17" t="str" cm="1">
-        <f t="array" ref="AF17">_xlfn.TEXTJOIN("",1,MID(MID($B16,1,AF18-2),_xlfn.SEQUENCE(LEN($B16),,LEN($B16),-1),1))</f>
-        <v>bbgtkkkjggkffjfjfjjjddfdddjdfe</v>
-      </c>
-      <c r="AG17" t="str" cm="1">
-        <f t="array" ref="AG17">_xlfn.TEXTJOIN("",1,MID(MID($B16,1,AG18-2),_xlfn.SEQUENCE(LEN($B16),,LEN($B16),-1),1))</f>
-        <v>sbbgtkkkjggkffjfjfjjjddfdddjdfe</v>
+        <v>jfjfjjjdddfdddjdffee</v>
       </c>
     </row>
-    <row r="18" spans="1:33">
+    <row r="18" spans="1:44">
       <c r="B18">
         <v>2</v>
       </c>
@@ -6396,166 +6376,155 @@
         <f t="shared" si="18"/>
         <v>22</v>
       </c>
-      <c r="W18">
-        <f t="shared" si="18"/>
-        <v>23</v>
-      </c>
-      <c r="X18">
-        <f t="shared" si="18"/>
-        <v>24</v>
-      </c>
-      <c r="Y18">
-        <f t="shared" si="18"/>
-        <v>25</v>
-      </c>
-      <c r="Z18">
-        <f t="shared" si="18"/>
-        <v>26</v>
-      </c>
-      <c r="AA18">
-        <f t="shared" si="18"/>
-        <v>27</v>
-      </c>
-      <c r="AB18">
-        <f t="shared" si="18"/>
-        <v>28</v>
-      </c>
-      <c r="AC18">
-        <f t="shared" si="18"/>
-        <v>29</v>
-      </c>
-      <c r="AD18">
-        <f t="shared" si="18"/>
-        <v>30</v>
-      </c>
-      <c r="AE18">
-        <f t="shared" si="18"/>
-        <v>31</v>
-      </c>
-      <c r="AF18">
-        <f t="shared" si="18"/>
-        <v>32</v>
-      </c>
-      <c r="AG18">
-        <f t="shared" si="18"/>
-        <v>33</v>
-      </c>
     </row>
-    <row r="19" spans="1:33">
+    <row r="19" spans="1:44">
       <c r="B19" t="str" cm="1">
-        <f t="array" ref="B19:AG19">MID(B16,_xlfn.SEQUENCE(1,LEN(B16)),1)</f>
+        <f t="array" ref="B19:AR19">MID(B16,_xlfn.SEQUENCE(1,LEN(B16)),1)</f>
         <v>e</v>
       </c>
       <c r="C19" t="str">
+        <v>e</v>
+      </c>
+      <c r="D19" t="str">
         <v>f</v>
       </c>
-      <c r="D19" t="str">
-        <v>d</v>
-      </c>
       <c r="E19" t="str">
-        <v>j</v>
+        <v>f</v>
       </c>
       <c r="F19" t="str">
         <v>d</v>
       </c>
       <c r="G19" t="str">
-        <v>d</v>
+        <v>j</v>
       </c>
       <c r="H19" t="str">
         <v>d</v>
       </c>
       <c r="I19" t="str">
-        <v>f</v>
+        <v>d</v>
       </c>
       <c r="J19" t="str">
         <v>d</v>
       </c>
       <c r="K19" t="str">
+        <v>f</v>
+      </c>
+      <c r="L19" t="str">
         <v>d</v>
       </c>
-      <c r="L19" t="str">
+      <c r="M19" t="str">
+        <v>d</v>
+      </c>
+      <c r="N19" t="str">
+        <v>d</v>
+      </c>
+      <c r="O19" t="str">
         <v>j</v>
-      </c>
-      <c r="M19" t="str">
-        <v>j</v>
-      </c>
-      <c r="N19" t="str">
-        <v>j</v>
-      </c>
-      <c r="O19" t="str">
-        <v>f</v>
       </c>
       <c r="P19" t="str">
         <v>j</v>
       </c>
       <c r="Q19" t="str">
+        <v>j</v>
+      </c>
+      <c r="R19" t="str">
         <v>f</v>
       </c>
-      <c r="R19" t="str">
+      <c r="S19" t="str">
         <v>j</v>
-      </c>
-      <c r="S19" t="str">
-        <v>f</v>
       </c>
       <c r="T19" t="str">
         <v>f</v>
       </c>
       <c r="U19" t="str">
-        <v>k</v>
+        <v>j</v>
       </c>
       <c r="V19" t="str">
-        <v>g</v>
+        <v>f</v>
       </c>
       <c r="W19" t="str">
-        <v>g</v>
+        <v>f</v>
       </c>
       <c r="X19" t="str">
-        <v>j</v>
+        <v>f</v>
       </c>
       <c r="Y19" t="str">
         <v>k</v>
       </c>
       <c r="Z19" t="str">
+        <v>g</v>
+      </c>
+      <c r="AA19" t="str">
+        <v>g</v>
+      </c>
+      <c r="AB19" t="str">
+        <v>j</v>
+      </c>
+      <c r="AC19" t="str">
         <v>k</v>
       </c>
-      <c r="AA19" t="str">
+      <c r="AD19" t="str">
         <v>k</v>
       </c>
-      <c r="AB19" t="str">
+      <c r="AE19" t="str">
+        <v>e</v>
+      </c>
+      <c r="AF19" t="str">
+        <v>e</v>
+      </c>
+      <c r="AG19" t="str">
+        <v>k</v>
+      </c>
+      <c r="AH19" t="str">
         <v>t</v>
       </c>
-      <c r="AC19" t="str">
+      <c r="AI19" t="str">
+        <v>r</v>
+      </c>
+      <c r="AJ19" t="str">
+        <v>r</v>
+      </c>
+      <c r="AK19" t="str">
         <v>g</v>
       </c>
-      <c r="AD19" t="str">
+      <c r="AL19" t="str">
+        <v>g</v>
+      </c>
+      <c r="AM19" t="str">
         <v>b</v>
       </c>
-      <c r="AE19" t="str">
+      <c r="AN19" t="str">
         <v>b</v>
       </c>
-      <c r="AF19" t="str">
+      <c r="AO19" t="str">
         <v>s</v>
       </c>
-      <c r="AG19" t="str">
+      <c r="AP19" t="str">
         <v>s</v>
       </c>
+      <c r="AQ19" t="str">
+        <v>s</v>
+      </c>
+      <c r="AR19" t="str">
+        <v>g</v>
+      </c>
     </row>
-    <row r="20" spans="1:33">
+    <row r="20" spans="1:44">
       <c r="B20">
         <f>IF(ISNUMBER(SEARCH(B19,MID($B16,B18,LEN($B16)))),SEARCH(B19,MID($B16,B18,LEN($B16))),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C20">
         <f t="shared" ref="C20" si="19">IF(ISNUMBER(SEARCH(C19,MID($B$8,C18,LEN($B$8)))),SEARCH(C19,MID($B$8,C18,LEN($B$8))),0)</f>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D20">
         <f t="shared" ref="D20" si="20">IF(ISNUMBER(SEARCH(D19,MID($B$8,D18,LEN($B$8)))),SEARCH(D19,MID($B$8,D18,LEN($B$8))),0)</f>
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E20">
         <f t="shared" ref="E20" si="21">IF(ISNUMBER(SEARCH(E19,MID($B$8,E18,LEN($B$8)))),SEARCH(E19,MID($B$8,E18,LEN($B$8))),0)</f>
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F20">
         <f t="shared" ref="F20" si="22">IF(ISNUMBER(SEARCH(F19,MID($B$8,F18,LEN($B$8)))),SEARCH(F19,MID($B$8,F18,LEN($B$8))),0)</f>
@@ -6563,7 +6532,7 @@
       </c>
       <c r="G20">
         <f t="shared" ref="G20" si="23">IF(ISNUMBER(SEARCH(G19,MID($B$8,G18,LEN($B$8)))),SEARCH(G19,MID($B$8,G18,LEN($B$8))),0)</f>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H20">
         <f t="shared" ref="H20" si="24">IF(ISNUMBER(SEARCH(H19,MID($B$8,H18,LEN($B$8)))),SEARCH(H19,MID($B$8,H18,LEN($B$8))),0)</f>
@@ -6571,7 +6540,7 @@
       </c>
       <c r="I20">
         <f t="shared" ref="I20" si="25">IF(ISNUMBER(SEARCH(I19,MID($B$8,I18,LEN($B$8)))),SEARCH(I19,MID($B$8,I18,LEN($B$8))),0)</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J20">
         <f t="shared" ref="J20" si="26">IF(ISNUMBER(SEARCH(J19,MID($B$8,J18,LEN($B$8)))),SEARCH(J19,MID($B$8,J18,LEN($B$8))),0)</f>
@@ -6579,23 +6548,23 @@
       </c>
       <c r="K20">
         <f t="shared" ref="K20" si="27">IF(ISNUMBER(SEARCH(K19,MID($B$8,K18,LEN($B$8)))),SEARCH(K19,MID($B$8,K18,LEN($B$8))),0)</f>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <f t="shared" ref="L20" si="28">IF(ISNUMBER(SEARCH(L19,MID($B$8,L18,LEN($B$8)))),SEARCH(L19,MID($B$8,L18,LEN($B$8))),0)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M20">
         <f t="shared" ref="M20" si="29">IF(ISNUMBER(SEARCH(M19,MID($B$8,M18,LEN($B$8)))),SEARCH(M19,MID($B$8,M18,LEN($B$8))),0)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N20">
         <f t="shared" ref="N20" si="30">IF(ISNUMBER(SEARCH(N19,MID($B$8,N18,LEN($B$8)))),SEARCH(N19,MID($B$8,N18,LEN($B$8))),0)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O20">
         <f t="shared" ref="O20" si="31">IF(ISNUMBER(SEARCH(O19,MID($B$8,O18,LEN($B$8)))),SEARCH(O19,MID($B$8,O18,LEN($B$8))),0)</f>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="P20">
         <f t="shared" ref="P20" si="32">IF(ISNUMBER(SEARCH(P19,MID($B$8,P18,LEN($B$8)))),SEARCH(P19,MID($B$8,P18,LEN($B$8))),0)</f>
@@ -6603,15 +6572,15 @@
       </c>
       <c r="Q20">
         <f t="shared" ref="Q20" si="33">IF(ISNUMBER(SEARCH(Q19,MID($B$8,Q18,LEN($B$8)))),SEARCH(Q19,MID($B$8,Q18,LEN($B$8))),0)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R20">
         <f t="shared" ref="R20" si="34">IF(ISNUMBER(SEARCH(R19,MID($B$8,R18,LEN($B$8)))),SEARCH(R19,MID($B$8,R18,LEN($B$8))),0)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S20">
         <f t="shared" ref="S20" si="35">IF(ISNUMBER(SEARCH(S19,MID($B$8,S18,LEN($B$8)))),SEARCH(S19,MID($B$8,S18,LEN($B$8))),0)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T20">
         <f t="shared" ref="T20" si="36">IF(ISNUMBER(SEARCH(T19,MID($B$8,T18,LEN($B$8)))),SEARCH(T19,MID($B$8,T18,LEN($B$8))),0)</f>
@@ -6619,188 +6588,100 @@
       </c>
       <c r="U20">
         <f t="shared" ref="U20" si="37">IF(ISNUMBER(SEARCH(U19,MID($B$8,U18,LEN($B$8)))),SEARCH(U19,MID($B$8,U18,LEN($B$8))),0)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V20">
         <f t="shared" ref="V20" si="38">IF(ISNUMBER(SEARCH(V19,MID($B$8,V18,LEN($B$8)))),SEARCH(V19,MID($B$8,V18,LEN($B$8))),0)</f>
-        <v>34</v>
-      </c>
-      <c r="W20">
-        <f t="shared" ref="W20" si="39">IF(ISNUMBER(SEARCH(W19,MID($B$8,W18,LEN($B$8)))),SEARCH(W19,MID($B$8,W18,LEN($B$8))),0)</f>
-        <v>33</v>
-      </c>
-      <c r="X20">
-        <f t="shared" ref="X20" si="40">IF(ISNUMBER(SEARCH(X19,MID($B$8,X18,LEN($B$8)))),SEARCH(X19,MID($B$8,X18,LEN($B$8))),0)</f>
-        <v>5</v>
-      </c>
-      <c r="Y20">
-        <f t="shared" ref="Y20" si="41">IF(ISNUMBER(SEARCH(Y19,MID($B$8,Y18,LEN($B$8)))),SEARCH(Y19,MID($B$8,Y18,LEN($B$8))),0)</f>
-        <v>1</v>
-      </c>
-      <c r="Z20">
-        <f t="shared" ref="Z20" si="42">IF(ISNUMBER(SEARCH(Z19,MID($B$8,Z18,LEN($B$8)))),SEARCH(Z19,MID($B$8,Z18,LEN($B$8))),0)</f>
-        <v>5</v>
-      </c>
-      <c r="AA20">
-        <f t="shared" ref="AA20" si="43">IF(ISNUMBER(SEARCH(AA19,MID($B$8,AA18,LEN($B$8)))),SEARCH(AA19,MID($B$8,AA18,LEN($B$8))),0)</f>
-        <v>4</v>
-      </c>
-      <c r="AB20">
-        <f t="shared" ref="AB20" si="44">IF(ISNUMBER(SEARCH(AB19,MID($B$8,AB18,LEN($B$8)))),SEARCH(AB19,MID($B$8,AB18,LEN($B$8))),0)</f>
-        <v>48</v>
-      </c>
-      <c r="AC20">
-        <f t="shared" ref="AC20" si="45">IF(ISNUMBER(SEARCH(AC19,MID($B$8,AC18,LEN($B$8)))),SEARCH(AC19,MID($B$8,AC18,LEN($B$8))),0)</f>
-        <v>27</v>
-      </c>
-      <c r="AD20">
-        <f t="shared" ref="AD20" si="46">IF(ISNUMBER(SEARCH(AD19,MID($B$8,AD18,LEN($B$8)))),SEARCH(AD19,MID($B$8,AD18,LEN($B$8))),0)</f>
-        <v>60</v>
-      </c>
-      <c r="AE20">
-        <f t="shared" ref="AE20" si="47">IF(ISNUMBER(SEARCH(AE19,MID($B$8,AE18,LEN($B$8)))),SEARCH(AE19,MID($B$8,AE18,LEN($B$8))),0)</f>
-        <v>59</v>
-      </c>
-      <c r="AF20">
-        <f t="shared" ref="AF20" si="48">IF(ISNUMBER(SEARCH(AF19,MID($B$8,AF18,LEN($B$8)))),SEARCH(AF19,MID($B$8,AF18,LEN($B$8))),0)</f>
-        <v>63</v>
-      </c>
-      <c r="AG20">
-        <f t="shared" ref="AG20" si="49">IF(ISNUMBER(SEARCH(AG19,MID($B$8,AG18,LEN($B$8)))),SEARCH(AG19,MID($B$8,AG18,LEN($B$8))),0)</f>
-        <v>62</v>
+        <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:33">
+    <row r="21" spans="1:44">
       <c r="B21">
         <f>IF(ISNUMBER(SEARCH(B19,MID(B17,1,B18-1))),SEARCH(B19,MID(B17,1,B18-1)),0)</f>
         <v>0</v>
       </c>
       <c r="C21">
-        <f t="shared" ref="C21:BN21" si="50">IF(ISNUMBER(SEARCH(C19,MID(C17,1,C18-1))),SEARCH(C19,MID(C17,1,C18-1)),0)</f>
-        <v>0</v>
+        <f t="shared" ref="C21:BN21" si="39">IF(ISNUMBER(SEARCH(C19,MID(C17,1,C18-1))),SEARCH(C19,MID(C17,1,C18-1)),0)</f>
+        <v>1</v>
       </c>
       <c r="D21">
-        <f t="shared" si="50"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="E21">
-        <f t="shared" si="50"/>
-        <v>0</v>
+        <f t="shared" si="39"/>
+        <v>1</v>
       </c>
       <c r="F21">
-        <f t="shared" si="50"/>
-        <v>2</v>
+        <f t="shared" si="39"/>
+        <v>0</v>
       </c>
       <c r="G21">
-        <f t="shared" si="50"/>
-        <v>1</v>
+        <f t="shared" si="39"/>
+        <v>0</v>
       </c>
       <c r="H21">
-        <f t="shared" si="50"/>
-        <v>1</v>
+        <f t="shared" si="39"/>
+        <v>2</v>
       </c>
       <c r="I21">
-        <f t="shared" si="50"/>
+        <f t="shared" si="39"/>
+        <v>1</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="39"/>
+        <v>1</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="39"/>
         <v>6</v>
       </c>
-      <c r="J21">
-        <f t="shared" si="50"/>
-        <v>2</v>
-      </c>
-      <c r="K21">
-        <f t="shared" si="50"/>
-        <v>1</v>
-      </c>
       <c r="L21">
-        <f t="shared" si="50"/>
+        <f t="shared" si="39"/>
+        <v>2</v>
+      </c>
+      <c r="M21">
+        <f t="shared" si="39"/>
+        <v>1</v>
+      </c>
+      <c r="N21">
+        <f t="shared" si="39"/>
+        <v>1</v>
+      </c>
+      <c r="O21">
+        <f t="shared" si="39"/>
+        <v>8</v>
+      </c>
+      <c r="P21">
+        <f t="shared" si="39"/>
+        <v>1</v>
+      </c>
+      <c r="Q21">
+        <f t="shared" si="39"/>
+        <v>1</v>
+      </c>
+      <c r="R21">
+        <f t="shared" si="39"/>
         <v>7</v>
       </c>
-      <c r="M21">
-        <f t="shared" si="50"/>
-        <v>1</v>
-      </c>
-      <c r="N21">
-        <f t="shared" si="50"/>
-        <v>1</v>
-      </c>
-      <c r="O21">
-        <f t="shared" si="50"/>
-        <v>6</v>
-      </c>
-      <c r="P21">
-        <f t="shared" si="50"/>
-        <v>2</v>
-      </c>
-      <c r="Q21">
-        <f t="shared" si="50"/>
-        <v>2</v>
-      </c>
-      <c r="R21">
-        <f t="shared" si="50"/>
-        <v>2</v>
-      </c>
       <c r="S21">
-        <f t="shared" si="50"/>
+        <f t="shared" si="39"/>
         <v>2</v>
       </c>
       <c r="T21">
-        <f t="shared" si="50"/>
-        <v>1</v>
+        <f t="shared" si="39"/>
+        <v>2</v>
       </c>
       <c r="U21">
-        <f t="shared" si="50"/>
-        <v>0</v>
+        <f t="shared" si="39"/>
+        <v>2</v>
       </c>
       <c r="V21">
-        <f t="shared" si="50"/>
-        <v>0</v>
-      </c>
-      <c r="W21">
-        <f t="shared" si="50"/>
-        <v>1</v>
-      </c>
-      <c r="X21">
-        <f t="shared" si="50"/>
-        <v>6</v>
-      </c>
-      <c r="Y21">
-        <f t="shared" si="50"/>
-        <v>4</v>
-      </c>
-      <c r="Z21">
-        <f t="shared" si="50"/>
-        <v>1</v>
-      </c>
-      <c r="AA21">
-        <f t="shared" si="50"/>
-        <v>1</v>
-      </c>
-      <c r="AB21">
-        <f t="shared" si="50"/>
-        <v>0</v>
-      </c>
-      <c r="AC21">
-        <f t="shared" si="50"/>
-        <v>6</v>
-      </c>
-      <c r="AD21">
-        <f t="shared" si="50"/>
-        <v>0</v>
-      </c>
-      <c r="AE21">
-        <f t="shared" si="50"/>
-        <v>1</v>
-      </c>
-      <c r="AF21">
-        <f t="shared" si="50"/>
-        <v>0</v>
-      </c>
-      <c r="AG21">
-        <f t="shared" si="50"/>
-        <v>1</v>
+        <f t="shared" si="39"/>
+        <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:33">
+    <row r="22" spans="1:44">
       <c r="B22">
         <f>IF(AND(B20&gt;C21,B21&gt;A20),1,0)</f>
         <v>0</v>
@@ -6810,397 +6691,265 @@
         <v>0</v>
       </c>
       <c r="D22">
-        <f t="shared" ref="D22:BN22" si="51">IF(AND(D20&gt;E21,D21&gt;C20),1,0)</f>
+        <f t="shared" ref="D22:BN22" si="40">IF(AND(D20&gt;E21,D21&gt;C20),1,0)</f>
         <v>0</v>
       </c>
       <c r="E22">
-        <f t="shared" si="51"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="F22">
-        <f t="shared" si="51"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="G22">
-        <f t="shared" si="51"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="H22">
-        <f t="shared" si="51"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="I22">
-        <f t="shared" si="51"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="J22">
-        <f t="shared" si="51"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="K22">
-        <f t="shared" si="51"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="L22">
-        <f t="shared" si="51"/>
-        <v>1</v>
+        <f t="shared" si="40"/>
+        <v>0</v>
       </c>
       <c r="M22">
-        <f t="shared" si="51"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="N22">
-        <f t="shared" si="51"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="O22">
-        <f t="shared" si="51"/>
-        <v>1</v>
+        <f t="shared" si="40"/>
+        <v>0</v>
       </c>
       <c r="P22">
-        <f t="shared" si="51"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="Q22">
-        <f t="shared" si="51"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="R22">
-        <f t="shared" si="51"/>
-        <v>0</v>
+        <f t="shared" si="40"/>
+        <v>1</v>
       </c>
       <c r="S22">
-        <f t="shared" si="51"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="T22">
-        <f t="shared" si="51"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="U22">
-        <f t="shared" si="51"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="V22">
-        <f t="shared" si="51"/>
-        <v>0</v>
-      </c>
-      <c r="W22">
-        <f t="shared" si="51"/>
-        <v>0</v>
-      </c>
-      <c r="X22">
-        <f t="shared" si="51"/>
-        <v>0</v>
-      </c>
-      <c r="Y22">
-        <f t="shared" si="51"/>
-        <v>0</v>
-      </c>
-      <c r="Z22">
-        <f t="shared" si="51"/>
-        <v>0</v>
-      </c>
-      <c r="AA22">
-        <f t="shared" si="51"/>
-        <v>0</v>
-      </c>
-      <c r="AB22">
-        <f t="shared" si="51"/>
-        <v>0</v>
-      </c>
-      <c r="AC22">
-        <f t="shared" si="51"/>
-        <v>0</v>
-      </c>
-      <c r="AD22">
-        <f t="shared" si="51"/>
-        <v>0</v>
-      </c>
-      <c r="AE22">
-        <f t="shared" si="51"/>
-        <v>0</v>
-      </c>
-      <c r="AF22">
-        <f t="shared" si="51"/>
-        <v>0</v>
-      </c>
-      <c r="AG22">
-        <f t="shared" si="51"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:33">
+    <row r="23" spans="1:44">
       <c r="B23">
-        <f>IF(OR(B19=C19,B19=A19),1,0)</f>
+        <f t="shared" ref="B23" si="41">IF(OR(B21&gt;C22,B22&gt;A21),1,0)</f>
         <v>0</v>
       </c>
       <c r="C23">
-        <f t="shared" ref="C23:AG23" si="52">IF(OR(C19=D19,C19=B19),1,0)</f>
-        <v>0</v>
+        <f t="shared" ref="C23" si="42">IF(OR(C21&gt;D22,C22&gt;B21),1,0)</f>
+        <v>1</v>
       </c>
       <c r="D23">
-        <f t="shared" si="52"/>
+        <f t="shared" ref="D23" si="43">IF(OR(D21&gt;E22,D22&gt;C21),1,0)</f>
         <v>0</v>
       </c>
       <c r="E23">
-        <f t="shared" si="52"/>
-        <v>0</v>
+        <f t="shared" ref="E23" si="44">IF(OR(E21&gt;F22,E22&gt;D21),1,0)</f>
+        <v>1</v>
       </c>
       <c r="F23">
-        <f t="shared" si="52"/>
-        <v>1</v>
+        <f t="shared" ref="F23" si="45">IF(OR(F21&gt;G22,F22&gt;E21),1,0)</f>
+        <v>0</v>
       </c>
       <c r="G23">
-        <f t="shared" si="52"/>
-        <v>1</v>
+        <f t="shared" ref="G23" si="46">IF(OR(G21&gt;H22,G22&gt;F21),1,0)</f>
+        <v>0</v>
       </c>
       <c r="H23">
-        <f t="shared" si="52"/>
+        <f t="shared" ref="H23" si="47">IF(OR(H21&gt;I22,H22&gt;G21),1,0)</f>
         <v>1</v>
       </c>
       <c r="I23">
-        <f t="shared" si="52"/>
-        <v>0</v>
+        <f t="shared" ref="I23" si="48">IF(OR(I21&gt;J22,I22&gt;H21),1,0)</f>
+        <v>1</v>
       </c>
       <c r="J23">
-        <f t="shared" si="52"/>
+        <f t="shared" ref="J23" si="49">IF(OR(J21&gt;K22,J22&gt;I21),1,0)</f>
         <v>1</v>
       </c>
       <c r="K23">
-        <f t="shared" si="52"/>
+        <f t="shared" ref="K23" si="50">IF(OR(K21&gt;L22,K22&gt;J21),1,0)</f>
         <v>1</v>
       </c>
       <c r="L23">
-        <f t="shared" si="52"/>
+        <f t="shared" ref="L23" si="51">IF(OR(L21&gt;M22,L22&gt;K21),1,0)</f>
         <v>1</v>
       </c>
       <c r="M23">
-        <f t="shared" si="52"/>
+        <f t="shared" ref="M23" si="52">IF(OR(M21&gt;N22,M22&gt;L21),1,0)</f>
         <v>1</v>
       </c>
       <c r="N23">
-        <f t="shared" si="52"/>
+        <f t="shared" ref="N23" si="53">IF(OR(N21&gt;O22,N22&gt;M21),1,0)</f>
         <v>1</v>
       </c>
       <c r="O23">
-        <f t="shared" si="52"/>
-        <v>0</v>
+        <f t="shared" ref="O23" si="54">IF(OR(O21&gt;P22,O22&gt;N21),1,0)</f>
+        <v>1</v>
       </c>
       <c r="P23">
-        <f t="shared" si="52"/>
-        <v>0</v>
+        <f t="shared" ref="P23" si="55">IF(OR(P21&gt;Q22,P22&gt;O21),1,0)</f>
+        <v>1</v>
       </c>
       <c r="Q23">
-        <f t="shared" si="52"/>
+        <f t="shared" ref="Q23" si="56">IF(OR(Q21&gt;R22,Q22&gt;P21),1,0)</f>
         <v>0</v>
       </c>
       <c r="R23">
-        <f t="shared" si="52"/>
-        <v>0</v>
+        <f t="shared" ref="R23" si="57">IF(OR(R21&gt;S22,R22&gt;Q21),1,0)</f>
+        <v>1</v>
       </c>
       <c r="S23">
-        <f t="shared" si="52"/>
+        <f t="shared" ref="S23" si="58">IF(OR(S21&gt;T22,S22&gt;R21),1,0)</f>
         <v>1</v>
       </c>
       <c r="T23">
-        <f t="shared" si="52"/>
+        <f t="shared" ref="T23" si="59">IF(OR(T21&gt;U22,T22&gt;S21),1,0)</f>
         <v>1</v>
       </c>
       <c r="U23">
-        <f t="shared" si="52"/>
-        <v>0</v>
+        <f t="shared" ref="U23" si="60">IF(OR(U21&gt;V22,U22&gt;T21),1,0)</f>
+        <v>1</v>
       </c>
       <c r="V23">
-        <f t="shared" si="52"/>
-        <v>1</v>
-      </c>
-      <c r="W23">
-        <f t="shared" si="52"/>
-        <v>1</v>
-      </c>
-      <c r="X23">
-        <f t="shared" si="52"/>
-        <v>0</v>
-      </c>
-      <c r="Y23">
-        <f t="shared" si="52"/>
-        <v>1</v>
-      </c>
-      <c r="Z23">
-        <f t="shared" si="52"/>
-        <v>1</v>
-      </c>
-      <c r="AA23">
-        <f t="shared" si="52"/>
-        <v>1</v>
-      </c>
-      <c r="AB23">
-        <f t="shared" si="52"/>
-        <v>0</v>
-      </c>
-      <c r="AC23">
-        <f t="shared" si="52"/>
-        <v>0</v>
-      </c>
-      <c r="AD23">
-        <f t="shared" si="52"/>
-        <v>1</v>
-      </c>
-      <c r="AE23">
-        <f t="shared" si="52"/>
-        <v>1</v>
-      </c>
-      <c r="AF23">
-        <f t="shared" si="52"/>
-        <v>1</v>
-      </c>
-      <c r="AG23">
-        <f t="shared" si="52"/>
+        <f t="shared" ref="V23" si="61">IF(OR(V21&gt;W22,V22&gt;U21),1,0)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:33">
+    <row r="24" spans="1:44">
       <c r="B24" t="str">
         <f>IF(B23=0,B19,"")</f>
         <v>e</v>
       </c>
       <c r="C24" t="str">
-        <f t="shared" ref="C24:AG24" si="53">IF(C23=0,C19,"")</f>
+        <f t="shared" ref="C24:AG24" si="62">IF(C23=0,C19,"")</f>
+        <v/>
+      </c>
+      <c r="D24" t="str">
+        <f t="shared" si="62"/>
         <v>f</v>
       </c>
-      <c r="D24" t="str">
-        <f t="shared" si="53"/>
+      <c r="E24" t="str">
+        <f t="shared" si="62"/>
+        <v/>
+      </c>
+      <c r="F24" t="str">
+        <f t="shared" si="62"/>
         <v>d</v>
       </c>
-      <c r="E24" t="str">
-        <f t="shared" si="53"/>
+      <c r="G24" t="str">
+        <f t="shared" si="62"/>
         <v>j</v>
       </c>
-      <c r="F24" t="str">
-        <f t="shared" si="53"/>
-        <v/>
-      </c>
-      <c r="G24" t="str">
-        <f t="shared" si="53"/>
-        <v/>
-      </c>
       <c r="H24" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="62"/>
         <v/>
       </c>
       <c r="I24" t="str">
-        <f t="shared" si="53"/>
-        <v>f</v>
+        <f t="shared" si="62"/>
+        <v/>
       </c>
       <c r="J24" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="62"/>
         <v/>
       </c>
       <c r="K24" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="62"/>
         <v/>
       </c>
       <c r="L24" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="62"/>
         <v/>
       </c>
       <c r="M24" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="62"/>
         <v/>
       </c>
       <c r="N24" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="62"/>
         <v/>
       </c>
       <c r="O24" t="str">
-        <f t="shared" si="53"/>
-        <v>f</v>
+        <f t="shared" si="62"/>
+        <v/>
       </c>
       <c r="P24" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="62"/>
+        <v/>
+      </c>
+      <c r="Q24" t="str">
+        <f t="shared" si="62"/>
         <v>j</v>
       </c>
-      <c r="Q24" t="str">
-        <f t="shared" si="53"/>
-        <v>f</v>
-      </c>
       <c r="R24" t="str">
-        <f t="shared" si="53"/>
-        <v>j</v>
+        <f t="shared" si="62"/>
+        <v/>
       </c>
       <c r="S24" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="62"/>
         <v/>
       </c>
       <c r="T24" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="62"/>
         <v/>
       </c>
       <c r="U24" t="str">
-        <f t="shared" si="53"/>
-        <v>k</v>
+        <f t="shared" si="62"/>
+        <v/>
       </c>
       <c r="V24" t="str">
-        <f t="shared" si="53"/>
-        <v/>
-      </c>
-      <c r="W24" t="str">
-        <f t="shared" si="53"/>
-        <v/>
-      </c>
-      <c r="X24" t="str">
-        <f t="shared" si="53"/>
-        <v>j</v>
-      </c>
-      <c r="Y24" t="str">
-        <f t="shared" si="53"/>
-        <v/>
-      </c>
-      <c r="Z24" t="str">
-        <f t="shared" si="53"/>
-        <v/>
-      </c>
-      <c r="AA24" t="str">
-        <f t="shared" si="53"/>
-        <v/>
-      </c>
-      <c r="AB24" t="str">
-        <f t="shared" si="53"/>
-        <v>t</v>
-      </c>
-      <c r="AC24" t="str">
-        <f t="shared" si="53"/>
-        <v>g</v>
-      </c>
-      <c r="AD24" t="str">
-        <f t="shared" si="53"/>
-        <v/>
-      </c>
-      <c r="AE24" t="str">
-        <f t="shared" si="53"/>
-        <v/>
-      </c>
-      <c r="AF24" t="str">
-        <f t="shared" si="53"/>
-        <v/>
-      </c>
-      <c r="AG24" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="62"/>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:33">
+    <row r="25" spans="1:44">
+      <c r="A25" t="s">
+        <v>6</v>
+      </c>
       <c r="B25" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:33">
-      <c r="A26" t="s">
-        <v>7</v>
-      </c>
+    <row r="26" spans="1:44">
       <c r="B26" t="str" cm="1">
-        <f t="array" ref="B26:M26">MID(B25,_xlfn.SEQUENCE(1,LEN(B25)),1)</f>
+        <f t="array" ref="B26:Z26">MID(B25,_xlfn.SEQUENCE(1,LEN(B25)),1)</f>
         <v>e</v>
       </c>
       <c r="C26" t="str">
@@ -7213,172 +6962,497 @@
         <v>j</v>
       </c>
       <c r="F26" t="str">
+        <v>d</v>
+      </c>
+      <c r="G26" t="str">
         <v>f</v>
       </c>
-      <c r="G26" t="str">
-        <v>j</v>
-      </c>
       <c r="H26" t="str">
-        <v>f</v>
+        <v>d</v>
       </c>
       <c r="I26" t="str">
         <v>j</v>
       </c>
       <c r="J26" t="str">
-        <v>k</v>
+        <v>f</v>
       </c>
       <c r="K26" t="str">
         <v>j</v>
       </c>
       <c r="L26" t="str">
+        <v>f</v>
+      </c>
+      <c r="M26" t="str">
+        <v>j</v>
+      </c>
+      <c r="N26" t="str">
+        <v>f</v>
+      </c>
+      <c r="O26" t="str">
+        <v>k</v>
+      </c>
+      <c r="P26" t="str">
+        <v>g</v>
+      </c>
+      <c r="Q26" t="str">
+        <v>j</v>
+      </c>
+      <c r="R26" t="str">
+        <v>k</v>
+      </c>
+      <c r="S26" t="str">
+        <v>e</v>
+      </c>
+      <c r="T26" t="str">
+        <v>k</v>
+      </c>
+      <c r="U26" t="str">
         <v>t</v>
       </c>
-      <c r="M26" t="str">
+      <c r="V26" t="str">
+        <v>r</v>
+      </c>
+      <c r="W26" t="str">
         <v>g</v>
       </c>
+      <c r="X26" t="str">
+        <v>b</v>
+      </c>
+      <c r="Y26" t="str">
+        <v>s</v>
+      </c>
+      <c r="Z26" t="str">
+        <v>g</v>
+      </c>
     </row>
-    <row r="27" spans="1:33">
+    <row r="27" spans="1:44">
       <c r="A27">
-        <f>SUM(B27:M27)</f>
+        <f>SUMIF(B27:Z27,"=1",B27:Z27)</f>
+        <v>4</v>
+      </c>
+      <c r="B27">
+        <f>COUNTIF($B$26:$Z$26,B26)</f>
+        <v>2</v>
+      </c>
+      <c r="C27">
+        <f>COUNTIF($B$26:$Z$26,C26)</f>
         <v>5</v>
       </c>
-      <c r="B27">
-        <v>1</v>
-      </c>
-      <c r="C27">
-        <v>0</v>
-      </c>
       <c r="D27">
-        <v>1</v>
+        <f>COUNTIF($B$26:$Z$26,D26)</f>
+        <v>3</v>
       </c>
       <c r="E27">
-        <v>0</v>
+        <f>COUNTIF($B$26:$Z$26,E26)</f>
+        <v>5</v>
       </c>
       <c r="F27">
-        <v>0</v>
+        <f>COUNTIF($B$26:$Z$26,F26)</f>
+        <v>3</v>
       </c>
       <c r="G27">
-        <v>0</v>
+        <f>COUNTIF($B$26:$Z$26,G26)</f>
+        <v>5</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <f>COUNTIF($B$26:$Z$26,H26)</f>
+        <v>3</v>
       </c>
       <c r="I27">
-        <v>0</v>
+        <f>COUNTIF($B$26:$Z$26,I26)</f>
+        <v>5</v>
       </c>
       <c r="J27">
-        <v>1</v>
+        <f>COUNTIF($B$26:$Z$26,J26)</f>
+        <v>5</v>
       </c>
       <c r="K27">
-        <v>0</v>
+        <f>COUNTIF($B$26:$Z$26,K26)</f>
+        <v>5</v>
       </c>
       <c r="L27">
-        <v>1</v>
+        <f>COUNTIF($B$26:$Z$26,L26)</f>
+        <v>5</v>
       </c>
       <c r="M27">
-        <v>1</v>
+        <f>COUNTIF($B$26:$Z$26,M26)</f>
+        <v>5</v>
+      </c>
+      <c r="N27">
+        <f>COUNTIF($B$26:$Z$26,N26)</f>
+        <v>5</v>
+      </c>
+      <c r="O27">
+        <f>COUNTIF($B$26:$Z$26,O26)</f>
+        <v>3</v>
+      </c>
+      <c r="P27">
+        <f>COUNTIF($B$26:$Z$26,P26)</f>
+        <v>3</v>
+      </c>
+      <c r="Q27">
+        <f>COUNTIF($B$26:$Z$26,Q26)</f>
+        <v>5</v>
+      </c>
+      <c r="R27">
+        <f>COUNTIF($B$26:$Z$26,R26)</f>
+        <v>3</v>
+      </c>
+      <c r="S27">
+        <f>COUNTIF($B$26:$Z$26,S26)</f>
+        <v>2</v>
+      </c>
+      <c r="T27">
+        <f>COUNTIF($B$26:$Z$26,T26)</f>
+        <v>3</v>
+      </c>
+      <c r="U27">
+        <f>COUNTIF($B$26:$Z$26,U26)</f>
+        <v>1</v>
+      </c>
+      <c r="V27">
+        <f>COUNTIF($B$26:$Z$26,V26)</f>
+        <v>1</v>
+      </c>
+      <c r="W27">
+        <f>COUNTIF($B$26:$Z$26,W26)</f>
+        <v>3</v>
+      </c>
+      <c r="X27">
+        <f>COUNTIF($B$26:$Z$26,X26)</f>
+        <v>1</v>
+      </c>
+      <c r="Y27">
+        <f>COUNTIF($B$26:$Z$26,Y26)</f>
+        <v>1</v>
+      </c>
+      <c r="Z27">
+        <f>COUNTIF($B$26:$Z$26,Z26)</f>
+        <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:33">
-      <c r="B28" t="str">
-        <f>IF(B27=0,B26,"")</f>
-        <v/>
-      </c>
-      <c r="C28" t="str">
-        <f t="shared" ref="C28:M28" si="54">IF(C27=0,C26,"")</f>
+    <row r="28" spans="1:44">
+      <c r="A28" t="s">
+        <v>8</v>
+      </c>
+      <c r="B28" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:44">
+      <c r="A29">
+        <v>1</v>
+      </c>
+      <c r="B29" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:44">
+      <c r="A30">
+        <v>1</v>
+      </c>
+      <c r="B30" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31" spans="1:44">
+      <c r="A31">
+        <v>1</v>
+      </c>
+      <c r="B31" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:44">
+      <c r="A32">
+        <v>1</v>
+      </c>
+      <c r="B32" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19">
+      <c r="A33">
+        <v>1</v>
+      </c>
+      <c r="B33" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19">
+      <c r="A34">
+        <v>1</v>
+      </c>
+      <c r="B34" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19">
+      <c r="A35">
+        <v>1</v>
+      </c>
+      <c r="B35" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19">
+      <c r="A36">
+        <v>1</v>
+      </c>
+      <c r="B36" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19">
+      <c r="A37">
+        <v>1</v>
+      </c>
+      <c r="B37" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19">
+      <c r="A38">
+        <v>1</v>
+      </c>
+      <c r="B38" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19">
+      <c r="A39">
+        <v>1</v>
+      </c>
+      <c r="B39" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19">
+      <c r="A40">
+        <v>1</v>
+      </c>
+      <c r="B40" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19">
+      <c r="A41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19">
+      <c r="A42">
+        <f>A7+A14+A27+SUM(A29:A41)</f>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19">
+      <c r="B43" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19">
+      <c r="B44" t="str" cm="1">
+        <f t="array" ref="B44:S44">MID(B43,_xlfn.SEQUENCE(1,LEN(B43)),1)</f>
+        <v>e</v>
+      </c>
+      <c r="C44" t="str">
         <v>f</v>
       </c>
-      <c r="D28" t="str">
-        <f t="shared" si="54"/>
-        <v/>
-      </c>
-      <c r="E28" t="str">
-        <f t="shared" si="54"/>
+      <c r="D44" t="str">
         <v>j</v>
       </c>
-      <c r="F28" t="str">
-        <f t="shared" si="54"/>
+      <c r="E44" t="str">
+        <v>d</v>
+      </c>
+      <c r="F44" t="str">
+        <v>j</v>
+      </c>
+      <c r="G44" t="str">
         <v>f</v>
       </c>
-      <c r="G28" t="str">
-        <f t="shared" si="54"/>
+      <c r="H44" t="str">
         <v>j</v>
       </c>
-      <c r="H28" t="str">
-        <f t="shared" si="54"/>
+      <c r="I44" t="str">
         <v>f</v>
       </c>
-      <c r="I28" t="str">
-        <f t="shared" si="54"/>
+      <c r="J44" t="str">
         <v>j</v>
       </c>
-      <c r="J28" t="str">
-        <f t="shared" si="54"/>
-        <v/>
-      </c>
-      <c r="K28" t="str">
-        <f t="shared" si="54"/>
+      <c r="K44" t="str">
+        <v>f</v>
+      </c>
+      <c r="L44" t="str">
+        <v>k</v>
+      </c>
+      <c r="M44" t="str">
+        <v>g</v>
+      </c>
+      <c r="N44" t="str">
         <v>j</v>
       </c>
-      <c r="L28" t="str">
-        <f t="shared" si="54"/>
-        <v/>
-      </c>
-      <c r="M28" t="str">
-        <f t="shared" si="54"/>
-        <v/>
+      <c r="O44" t="str">
+        <v>k</v>
+      </c>
+      <c r="P44" t="str">
+        <v>t</v>
+      </c>
+      <c r="Q44" t="str">
+        <v>g</v>
+      </c>
+      <c r="R44" t="str">
+        <v>b</v>
+      </c>
+      <c r="S44" t="str">
+        <v>s</v>
       </c>
     </row>
-    <row r="29" spans="1:33">
-      <c r="A29" t="s">
-        <v>4</v>
-      </c>
-      <c r="B29" t="str">
-        <f>_xlfn.TEXTJOIN("",TRUE,B28:M28)</f>
-        <v>fjfjfjj</v>
+    <row r="45" spans="1:19">
+      <c r="B45">
+        <v>1</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>1</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>0</v>
+      </c>
+      <c r="O45">
+        <v>0</v>
+      </c>
+      <c r="P45">
+        <v>1</v>
+      </c>
+      <c r="Q45">
+        <v>0</v>
+      </c>
+      <c r="R45">
+        <v>17</v>
+      </c>
+      <c r="S45">
+        <v>18</v>
       </c>
     </row>
-    <row r="30" spans="1:33">
-      <c r="A30" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="31" spans="1:33">
-      <c r="A31">
-        <v>1</v>
-      </c>
-      <c r="B31" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="32" spans="1:33">
-      <c r="A32">
-        <v>1</v>
-      </c>
-      <c r="B32" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33">
-        <v>1</v>
-      </c>
-      <c r="B33" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35">
-        <f>4+5+79+5</f>
-        <v>93</v>
+    <row r="46" spans="1:19">
+      <c r="B46" t="str">
+        <f>IF(B45=0,B44,"")</f>
+        <v/>
+      </c>
+      <c r="C46" t="str">
+        <f t="shared" ref="C46:S46" si="63">IF(C45=0,C44,"")</f>
+        <v>f</v>
+      </c>
+      <c r="D46" t="str">
+        <f t="shared" si="63"/>
+        <v>j</v>
+      </c>
+      <c r="E46" t="str">
+        <f t="shared" si="63"/>
+        <v/>
+      </c>
+      <c r="F46" t="str">
+        <f t="shared" si="63"/>
+        <v>j</v>
+      </c>
+      <c r="G46" t="str">
+        <f t="shared" si="63"/>
+        <v>f</v>
+      </c>
+      <c r="H46" t="str">
+        <f t="shared" si="63"/>
+        <v>j</v>
+      </c>
+      <c r="I46" t="str">
+        <f t="shared" si="63"/>
+        <v>f</v>
+      </c>
+      <c r="J46" t="str">
+        <f t="shared" si="63"/>
+        <v>j</v>
+      </c>
+      <c r="K46" t="str">
+        <f t="shared" si="63"/>
+        <v>f</v>
+      </c>
+      <c r="L46" t="str">
+        <f t="shared" si="63"/>
+        <v>k</v>
+      </c>
+      <c r="M46" t="str">
+        <f t="shared" si="63"/>
+        <v>g</v>
+      </c>
+      <c r="N46" t="str">
+        <f t="shared" si="63"/>
+        <v>j</v>
+      </c>
+      <c r="O46" t="str">
+        <f t="shared" si="63"/>
+        <v>k</v>
+      </c>
+      <c r="P46" t="str">
+        <f t="shared" si="63"/>
+        <v/>
+      </c>
+      <c r="Q46" t="str">
+        <f t="shared" si="63"/>
+        <v>g</v>
+      </c>
+      <c r="R46" t="str">
+        <f t="shared" si="63"/>
+        <v/>
+      </c>
+      <c r="S46" t="str">
+        <f t="shared" si="63"/>
+        <v/>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE36B5BF-380C-455A-BEA9-96294331DF98}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:Y3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>